--- a/data/trans_bre/P23_8_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_8_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,53</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>63,01%</t>
+          <t>6,54</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>24,27%</t>
+          <t>-12,43</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>38,82%</t>
+          <t>40,92%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>116,88%</t>
+          <t>29,38%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>85,37%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>152,16%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>117,03%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-76,42%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 6,49</t>
+          <t>-3,15; 5,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 4,64</t>
+          <t>-2,83; 4,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 5,57</t>
+          <t>-2,81; 6,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 16,42</t>
+          <t>-1,86; 6,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-79,56; 685,32</t>
+          <t>-0,94; 15,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-78,26; 753,17</t>
+          <t>-24,31; -4,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-83,12; —</t>
+          <t>-80,74; 560,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 638,07</t>
+          <t>-75,13; 536,86</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-78,74; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-79,78; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-22,97; 675,76</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-93,17; -30,73</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,82</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>58,2%</t>
+          <t>-4,83</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-22,31%</t>
+          <t>-7,07</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>33,18%</t>
+          <t>49,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-46,37%</t>
+          <t>-30,07%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>34,41%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>42,28%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-46,38%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-55,19%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 7,21</t>
+          <t>-2,34; 6,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 3,3</t>
+          <t>-11,97; 2,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 4,73</t>
+          <t>-2,85; 4,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,61; 1,38</t>
+          <t>-2,75; 7,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-56,76; 479,14</t>
+          <t>-12,38; 1,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-86,24; 187,29</t>
+          <t>-16,33; 0,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-56,95; 309,12</t>
+          <t>-52,82; 430,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-79,7; 33,01</t>
+          <t>-89,78; 152,27</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-54,33; 240,69</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-45,78; 296,73</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-81,17; 34,43</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-81,31; 16,81</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>-2,56</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,33%</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-28,86%</t>
+          <t>-5,67</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-16,4%</t>
+          <t>-5,93%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>-27,21%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-15,18%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-33,95%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>9,14%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-41,22%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 4,14</t>
+          <t>-4,81; 3,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 1,78</t>
+          <t>-7,5; 1,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 2,62</t>
+          <t>-4,23; 2,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 7,01</t>
+          <t>-10,01; 1,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-52,07; 113,7</t>
+          <t>-5,36; 6,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-81,87; 89,17</t>
+          <t>-14,25; 0,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-58,8; 69,56</t>
+          <t>-56,3; 107,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-38,87; 98,41</t>
+          <t>-83,44; 74,62</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-55,23; 71,42</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-75,47; 47,13</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-39,98; 96,4</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-71,61; 12,65</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,39%</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>36,56%</t>
+          <t>-4,56</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>22,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-11,16%</t>
+          <t>37,29%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6,46%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>39,52%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-11,2%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-30,17%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 5,34</t>
+          <t>-5,21; 4,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 6,47</t>
+          <t>-2,72; 6,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 4,96</t>
+          <t>-4,31; 4,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 4,37</t>
+          <t>-1,38; 7,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-55,21; 194,44</t>
+          <t>-9,84; 5,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,62; 166,09</t>
+          <t>-11,04; 1,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-43,06; 93,4</t>
+          <t>-60,17; 185,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-47,55; 36,5</t>
+          <t>-32,32; 167,52</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-42,67; 80,32</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-13,57; 131,88</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-46,0; 49,29</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-58,1; 14,8</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>5,68</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>-5,15</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>34,56%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>28,99%</t>
+          <t>30,82%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-28,29%</t>
+          <t>18,59%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>23,61%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>90,59%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-28,28%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>9,56%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 8,29</t>
+          <t>-2,67; 7,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 5,43</t>
+          <t>-4,93; 5,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 6,8</t>
+          <t>-2,53; 6,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,24; 1,81</t>
+          <t>0,31; 11,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-28,52; 182,49</t>
+          <t>-12,37; 2,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-54,57; 160,23</t>
+          <t>-6,5; 9,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-35,77; 149,11</t>
+          <t>-27,35; 149,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-58,04; 15,8</t>
+          <t>-53,82; 147,91</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-29,85; 128,78</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-3,68; 260,3</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-55,69; 19,08</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-29,31; 63,38</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>21,94%</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-2,43%</t>
+          <t>6,83</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>31,37%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-0,86%</t>
+          <t>-4,22%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>12,99%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>22,74%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-0,82%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>68,15%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 7,25</t>
+          <t>-3,63; 8,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 4,67</t>
+          <t>-5,08; 4,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 5,42</t>
+          <t>-3,89; 6,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 9,55</t>
+          <t>-6,47; 12,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-48,29; 209,71</t>
+          <t>-8,74; 9,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-55,73; 138,54</t>
+          <t>-1,29; 15,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-52,83; 128,68</t>
+          <t>-44,03; 225,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-56,67; 97,98</t>
+          <t>-59,33; 112,97</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-42,66; 153,84</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-33,72; 118,64</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-54,26; 110,65</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-15,45; 234,04</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>2,43</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>-0,77</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>28,88%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>26,49%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-6,26%</t>
+          <t>4,33%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>15,9%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>32,85%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-6,25%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-21,62%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 3,47</t>
+          <t>-0,66; 3,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 2,23</t>
+          <t>-1,88; 2,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 2,45</t>
+          <t>-0,95; 2,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 2,15</t>
+          <t>-0,41; 4,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 88,2</t>
+          <t>-3,84; 2,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-28,16; 56,61</t>
+          <t>-6,97; 0,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-19,08; 53,23</t>
+          <t>-10,81; 78,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-28,63; 20,45</t>
+          <t>-28,08; 54,28</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-14,82; 54,17</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-5,38; 77,04</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-27,93; 22,41</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-41,13; 1,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
